--- a/BackTest/2020-01-19 BackTest FCT.xlsx
+++ b/BackTest/2020-01-19 BackTest FCT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-171263.9187338848</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-170421.9187338848</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-176043.0547578011</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-176043.0547578011</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-281373.6618578011</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-281173.6618578011</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-281812.5883578011</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-341087.6912578011</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-341072.6912578011</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-245861.9054578011</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-405077.1077352541</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-828028.604635254</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-828214.062835254</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-818780.309635254</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-792601.091035254</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-792601.091035254</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-792601.091035254</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-792601.091035254</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-792741.5549352539</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-792741.5549352539</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-794859.465335254</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-917867.7657352539</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -2992,14 +2992,10 @@
         <v>-683082.2335352537</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
-      </c>
-      <c r="I79" t="n">
-        <v>31.16</v>
-      </c>
-      <c r="J79" t="n">
-        <v>31.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
@@ -3032,1580 +3028,1376 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>31.17</v>
+      </c>
+      <c r="C81" t="n">
         <v>31.16</v>
       </c>
-      <c r="K80" t="inlineStr">
+      <c r="D81" t="n">
+        <v>31.17</v>
+      </c>
+      <c r="E81" t="n">
+        <v>31.16</v>
+      </c>
+      <c r="F81" t="n">
+        <v>4809.3328</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-683082.2335352537</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>31.16</v>
+      </c>
+      <c r="C82" t="n">
+        <v>31.16</v>
+      </c>
+      <c r="D82" t="n">
+        <v>31.16</v>
+      </c>
+      <c r="E82" t="n">
+        <v>31.16</v>
+      </c>
+      <c r="F82" t="n">
+        <v>8644.651599999999</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-683082.2335352537</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>31.16</v>
+      </c>
+      <c r="C83" t="n">
+        <v>31.16</v>
+      </c>
+      <c r="D83" t="n">
+        <v>31.16</v>
+      </c>
+      <c r="E83" t="n">
+        <v>31.16</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1227.7802</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-683082.2335352537</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="C84" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="D84" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="E84" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-684082.2335352537</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="C85" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="D85" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="E85" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="F85" t="n">
+        <v>29473.8325</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-684082.2335352537</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>30.75</v>
+      </c>
+      <c r="C86" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="D86" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="E86" t="n">
+        <v>30.75</v>
+      </c>
+      <c r="F86" t="n">
+        <v>26933.9548</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-684082.2335352537</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>30.76</v>
+      </c>
+      <c r="C87" t="n">
+        <v>30.76</v>
+      </c>
+      <c r="D87" t="n">
+        <v>30.76</v>
+      </c>
+      <c r="E87" t="n">
+        <v>30.76</v>
+      </c>
+      <c r="F87" t="n">
+        <v>17425.288</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-701507.5215352536</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="C88" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="D88" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="E88" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="F88" t="n">
+        <v>8924.9139</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-692582.6076352536</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="C89" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="D89" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="E89" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="F89" t="n">
+        <v>42968.2983</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-692582.6076352536</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="C90" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="D90" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="E90" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="F90" t="n">
+        <v>266.2721</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-692848.8797352535</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>31</v>
+      </c>
+      <c r="C91" t="n">
+        <v>31</v>
+      </c>
+      <c r="D91" t="n">
+        <v>31</v>
+      </c>
+      <c r="E91" t="n">
+        <v>31</v>
+      </c>
+      <c r="F91" t="n">
+        <v>360.3315</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-692488.5482352535</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>31</v>
+      </c>
+      <c r="C92" t="n">
+        <v>31</v>
+      </c>
+      <c r="D92" t="n">
+        <v>31</v>
+      </c>
+      <c r="E92" t="n">
+        <v>31</v>
+      </c>
+      <c r="F92" t="n">
+        <v>855.7873</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-692488.5482352535</v>
+      </c>
+      <c r="H92" t="n">
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>31</v>
+      </c>
+      <c r="J92" t="n">
+        <v>31</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>31</v>
+      </c>
+      <c r="C93" t="n">
+        <v>31</v>
+      </c>
+      <c r="D93" t="n">
+        <v>31</v>
+      </c>
+      <c r="E93" t="n">
+        <v>31</v>
+      </c>
+      <c r="F93" t="n">
+        <v>2567.3622</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-692488.5482352535</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>31</v>
+      </c>
+      <c r="K93" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>31.17</v>
-      </c>
-      <c r="C81" t="n">
-        <v>31.16</v>
-      </c>
-      <c r="D81" t="n">
-        <v>31.17</v>
-      </c>
-      <c r="E81" t="n">
-        <v>31.16</v>
-      </c>
-      <c r="F81" t="n">
-        <v>4809.3328</v>
-      </c>
-      <c r="G81" t="n">
-        <v>-683082.2335352537</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>31.16</v>
-      </c>
-      <c r="K81" t="inlineStr">
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="C94" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="D94" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="E94" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="F94" t="n">
+        <v>6000</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-686488.5482352535</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>31</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="C95" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="D95" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="E95" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="F95" t="n">
+        <v>824.3728</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-685664.1754352535</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>31.78</v>
+      </c>
+      <c r="C96" t="n">
+        <v>31.78</v>
+      </c>
+      <c r="D96" t="n">
+        <v>31.78</v>
+      </c>
+      <c r="E96" t="n">
+        <v>31.78</v>
+      </c>
+      <c r="F96" t="n">
+        <v>11906.5825</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-673757.5929352535</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="C97" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="D97" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="E97" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="F97" t="n">
+        <v>3656.3574</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-677413.9503352535</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="C98" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="D98" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="E98" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="F98" t="n">
+        <v>266.2721</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-677413.9503352535</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>31.69</v>
+      </c>
+      <c r="C99" t="n">
+        <v>31.69</v>
+      </c>
+      <c r="D99" t="n">
+        <v>31.69</v>
+      </c>
+      <c r="E99" t="n">
+        <v>31.69</v>
+      </c>
+      <c r="F99" t="n">
+        <v>50</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-677363.9503352535</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>31.69</v>
+      </c>
+      <c r="C100" t="n">
+        <v>31.69</v>
+      </c>
+      <c r="D100" t="n">
+        <v>31.69</v>
+      </c>
+      <c r="E100" t="n">
+        <v>31.69</v>
+      </c>
+      <c r="F100" t="n">
+        <v>1392.8844</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-677363.9503352535</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>31.79</v>
+      </c>
+      <c r="C101" t="n">
+        <v>31.79</v>
+      </c>
+      <c r="D101" t="n">
+        <v>31.79</v>
+      </c>
+      <c r="E101" t="n">
+        <v>31.79</v>
+      </c>
+      <c r="F101" t="n">
+        <v>31.45643284051588</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-677332.4939024129</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>31.79</v>
+      </c>
+      <c r="C102" t="n">
+        <v>31.79</v>
+      </c>
+      <c r="D102" t="n">
+        <v>31.79</v>
+      </c>
+      <c r="E102" t="n">
+        <v>31.79</v>
+      </c>
+      <c r="F102" t="n">
+        <v>1004.718464926077</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-677332.4939024129</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>31.79</v>
+      </c>
+      <c r="C103" t="n">
+        <v>31.79</v>
+      </c>
+      <c r="D103" t="n">
+        <v>31.79</v>
+      </c>
+      <c r="E103" t="n">
+        <v>31.79</v>
+      </c>
+      <c r="F103" t="n">
+        <v>425.1336022334067</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-677332.4939024129</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>31.79</v>
+      </c>
+      <c r="C104" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="D104" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="E104" t="n">
+        <v>31.79</v>
+      </c>
+      <c r="F104" t="n">
+        <v>86011.0246</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-591321.4693024129</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>31.69</v>
+      </c>
+      <c r="C105" t="n">
+        <v>31.69</v>
+      </c>
+      <c r="D105" t="n">
+        <v>31.69</v>
+      </c>
+      <c r="E105" t="n">
+        <v>31.69</v>
+      </c>
+      <c r="F105" t="n">
+        <v>28114.6013</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-619436.0706024129</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="C106" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="D106" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="E106" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="F106" t="n">
+        <v>1071.1815</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-618364.889102413</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>31.69</v>
+      </c>
+      <c r="C107" t="n">
+        <v>31.69</v>
+      </c>
+      <c r="D107" t="n">
+        <v>31.69</v>
+      </c>
+      <c r="E107" t="n">
+        <v>31.69</v>
+      </c>
+      <c r="F107" t="n">
+        <v>798.9063</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-619163.795402413</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="C108" t="n">
+        <v>32.02</v>
+      </c>
+      <c r="D108" t="n">
+        <v>32.02</v>
+      </c>
+      <c r="E108" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="F108" t="n">
+        <v>63695.97677001874</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-555467.8186323943</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>32.02</v>
+      </c>
+      <c r="C109" t="n">
+        <v>32.02</v>
+      </c>
+      <c r="D109" t="n">
+        <v>32.02</v>
+      </c>
+      <c r="E109" t="n">
+        <v>32.02</v>
+      </c>
+      <c r="F109" t="n">
+        <v>31292.8634</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-555467.8186323943</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>32.02</v>
+      </c>
+      <c r="C110" t="n">
+        <v>32.02</v>
+      </c>
+      <c r="D110" t="n">
+        <v>32.02</v>
+      </c>
+      <c r="E110" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="F110" t="n">
+        <v>5088.8783</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-555467.8186323943</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>32.02</v>
+      </c>
+      <c r="C111" t="n">
+        <v>32.32</v>
+      </c>
+      <c r="D111" t="n">
+        <v>32.32</v>
+      </c>
+      <c r="E111" t="n">
+        <v>32.02</v>
+      </c>
+      <c r="F111" t="n">
+        <v>21840.70952998126</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-533627.1091024131</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>32.32</v>
+      </c>
+      <c r="C112" t="n">
+        <v>32.32</v>
+      </c>
+      <c r="D112" t="n">
+        <v>32.32</v>
+      </c>
+      <c r="E112" t="n">
+        <v>32.32</v>
+      </c>
+      <c r="F112" t="n">
+        <v>12839.2872</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-533627.1091024131</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>32.32</v>
+      </c>
+      <c r="C113" t="n">
+        <v>32.32</v>
+      </c>
+      <c r="D113" t="n">
+        <v>32.32</v>
+      </c>
+      <c r="E113" t="n">
+        <v>32.32</v>
+      </c>
+      <c r="F113" t="n">
+        <v>50</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-533627.1091024131</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>32.32</v>
+      </c>
+      <c r="C114" t="n">
+        <v>32.32</v>
+      </c>
+      <c r="D114" t="n">
+        <v>32.32</v>
+      </c>
+      <c r="E114" t="n">
+        <v>32.32</v>
+      </c>
+      <c r="F114" t="n">
+        <v>9187.378000000001</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-533627.1091024131</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>32.39</v>
+      </c>
+      <c r="C115" t="n">
+        <v>32.39</v>
+      </c>
+      <c r="D115" t="n">
+        <v>32.39</v>
+      </c>
+      <c r="E115" t="n">
+        <v>32.39</v>
+      </c>
+      <c r="F115" t="n">
+        <v>6667.5454</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-526959.5637024131</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>32.35</v>
+      </c>
+      <c r="C116" t="n">
+        <v>32.35</v>
+      </c>
+      <c r="D116" t="n">
+        <v>32.35</v>
+      </c>
+      <c r="E116" t="n">
+        <v>32.35</v>
+      </c>
+      <c r="F116" t="n">
+        <v>50</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-527009.5637024131</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>32.39</v>
+      </c>
+      <c r="J116" t="n">
+        <v>32.39</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>32.35</v>
+      </c>
+      <c r="C117" t="n">
+        <v>32.35</v>
+      </c>
+      <c r="D117" t="n">
+        <v>32.35</v>
+      </c>
+      <c r="E117" t="n">
+        <v>32.35</v>
+      </c>
+      <c r="F117" t="n">
+        <v>20</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-527009.5637024131</v>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>32.35</v>
+      </c>
+      <c r="J117" t="n">
+        <v>32.39</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>32.03</v>
+      </c>
+      <c r="C118" t="n">
+        <v>32.03</v>
+      </c>
+      <c r="D118" t="n">
+        <v>32.03</v>
+      </c>
+      <c r="E118" t="n">
+        <v>32.03</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1796.4071</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-528805.9708024131</v>
+      </c>
+      <c r="H118" t="n">
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>32.35</v>
+      </c>
+      <c r="J118" t="n">
+        <v>32.39</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>32.03</v>
+      </c>
+      <c r="C119" t="n">
+        <v>32.03</v>
+      </c>
+      <c r="D119" t="n">
+        <v>32.03</v>
+      </c>
+      <c r="E119" t="n">
+        <v>32.03</v>
+      </c>
+      <c r="F119" t="n">
+        <v>15486.5501</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-528805.9708024131</v>
+      </c>
+      <c r="H119" t="n">
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>32.03</v>
+      </c>
+      <c r="J119" t="n">
+        <v>32.03</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>32.04</v>
+      </c>
+      <c r="C120" t="n">
+        <v>32.03</v>
+      </c>
+      <c r="D120" t="n">
+        <v>32.04</v>
+      </c>
+      <c r="E120" t="n">
+        <v>32.03</v>
+      </c>
+      <c r="F120" t="n">
+        <v>29094.6828</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-528805.9708024131</v>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>32.03</v>
+      </c>
+      <c r="J120" t="n">
+        <v>32.03</v>
+      </c>
+      <c r="K120" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>31.16</v>
-      </c>
-      <c r="C82" t="n">
-        <v>31.16</v>
-      </c>
-      <c r="D82" t="n">
-        <v>31.16</v>
-      </c>
-      <c r="E82" t="n">
-        <v>31.16</v>
-      </c>
-      <c r="F82" t="n">
-        <v>8644.651599999999</v>
-      </c>
-      <c r="G82" t="n">
-        <v>-683082.2335352537</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>31.16</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>31.16</v>
-      </c>
-      <c r="C83" t="n">
-        <v>31.16</v>
-      </c>
-      <c r="D83" t="n">
-        <v>31.16</v>
-      </c>
-      <c r="E83" t="n">
-        <v>31.16</v>
-      </c>
-      <c r="F83" t="n">
-        <v>1227.7802</v>
-      </c>
-      <c r="G83" t="n">
-        <v>-683082.2335352537</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>31.16</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="C84" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="D84" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="E84" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="F84" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G84" t="n">
-        <v>-684082.2335352537</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>31.16</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="C85" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="D85" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="E85" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="F85" t="n">
-        <v>29473.8325</v>
-      </c>
-      <c r="G85" t="n">
-        <v>-684082.2335352537</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>31.16</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>30.75</v>
-      </c>
-      <c r="C86" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="D86" t="n">
-        <v>30.8</v>
-      </c>
-      <c r="E86" t="n">
-        <v>30.75</v>
-      </c>
-      <c r="F86" t="n">
-        <v>26933.9548</v>
-      </c>
-      <c r="G86" t="n">
-        <v>-684082.2335352537</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>31.16</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>30.76</v>
-      </c>
-      <c r="C87" t="n">
-        <v>30.76</v>
-      </c>
-      <c r="D87" t="n">
-        <v>30.76</v>
-      </c>
-      <c r="E87" t="n">
-        <v>30.76</v>
-      </c>
-      <c r="F87" t="n">
-        <v>17425.288</v>
-      </c>
-      <c r="G87" t="n">
-        <v>-701507.5215352536</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>31.16</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="C88" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="D88" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="E88" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="F88" t="n">
-        <v>8924.9139</v>
-      </c>
-      <c r="G88" t="n">
-        <v>-692582.6076352536</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>31.16</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="C89" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="D89" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="E89" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="F89" t="n">
-        <v>42968.2983</v>
-      </c>
-      <c r="G89" t="n">
-        <v>-692582.6076352536</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>31.16</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="C90" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="D90" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="E90" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="F90" t="n">
-        <v>266.2721</v>
-      </c>
-      <c r="G90" t="n">
-        <v>-692848.8797352535</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>31.16</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>31</v>
-      </c>
-      <c r="C91" t="n">
-        <v>31</v>
-      </c>
-      <c r="D91" t="n">
-        <v>31</v>
-      </c>
-      <c r="E91" t="n">
-        <v>31</v>
-      </c>
-      <c r="F91" t="n">
-        <v>360.3315</v>
-      </c>
-      <c r="G91" t="n">
-        <v>-692488.5482352535</v>
-      </c>
-      <c r="H91" t="n">
-        <v>2</v>
-      </c>
-      <c r="I91" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="J91" t="n">
-        <v>31.16</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>31</v>
-      </c>
-      <c r="C92" t="n">
-        <v>31</v>
-      </c>
-      <c r="D92" t="n">
-        <v>31</v>
-      </c>
-      <c r="E92" t="n">
-        <v>31</v>
-      </c>
-      <c r="F92" t="n">
-        <v>855.7873</v>
-      </c>
-      <c r="G92" t="n">
-        <v>-692488.5482352535</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>31.16</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>31</v>
-      </c>
-      <c r="C93" t="n">
-        <v>31</v>
-      </c>
-      <c r="D93" t="n">
-        <v>31</v>
-      </c>
-      <c r="E93" t="n">
-        <v>31</v>
-      </c>
-      <c r="F93" t="n">
-        <v>2567.3622</v>
-      </c>
-      <c r="G93" t="n">
-        <v>-692488.5482352535</v>
-      </c>
-      <c r="H93" t="n">
-        <v>2</v>
-      </c>
-      <c r="I93" t="n">
-        <v>31</v>
-      </c>
-      <c r="J93" t="n">
-        <v>31.16</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="C94" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="D94" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="E94" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="F94" t="n">
-        <v>6000</v>
-      </c>
-      <c r="G94" t="n">
-        <v>-686488.5482352535</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>31.16</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>31.54</v>
-      </c>
-      <c r="C95" t="n">
-        <v>31.54</v>
-      </c>
-      <c r="D95" t="n">
-        <v>31.54</v>
-      </c>
-      <c r="E95" t="n">
-        <v>31.54</v>
-      </c>
-      <c r="F95" t="n">
-        <v>824.3728</v>
-      </c>
-      <c r="G95" t="n">
-        <v>-685664.1754352535</v>
-      </c>
-      <c r="H95" t="n">
-        <v>2</v>
-      </c>
-      <c r="I95" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="J95" t="n">
-        <v>31.16</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>31.78</v>
-      </c>
-      <c r="C96" t="n">
-        <v>31.78</v>
-      </c>
-      <c r="D96" t="n">
-        <v>31.78</v>
-      </c>
-      <c r="E96" t="n">
-        <v>31.78</v>
-      </c>
-      <c r="F96" t="n">
-        <v>11906.5825</v>
-      </c>
-      <c r="G96" t="n">
-        <v>-673757.5929352535</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>31.16</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>31.54</v>
-      </c>
-      <c r="C97" t="n">
-        <v>31.54</v>
-      </c>
-      <c r="D97" t="n">
-        <v>31.54</v>
-      </c>
-      <c r="E97" t="n">
-        <v>31.54</v>
-      </c>
-      <c r="F97" t="n">
-        <v>3656.3574</v>
-      </c>
-      <c r="G97" t="n">
-        <v>-677413.9503352535</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>31.16</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>31.54</v>
-      </c>
-      <c r="C98" t="n">
-        <v>31.54</v>
-      </c>
-      <c r="D98" t="n">
-        <v>31.54</v>
-      </c>
-      <c r="E98" t="n">
-        <v>31.54</v>
-      </c>
-      <c r="F98" t="n">
-        <v>266.2721</v>
-      </c>
-      <c r="G98" t="n">
-        <v>-677413.9503352535</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>31.16</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>31.69</v>
-      </c>
-      <c r="C99" t="n">
-        <v>31.69</v>
-      </c>
-      <c r="D99" t="n">
-        <v>31.69</v>
-      </c>
-      <c r="E99" t="n">
-        <v>31.69</v>
-      </c>
-      <c r="F99" t="n">
-        <v>50</v>
-      </c>
-      <c r="G99" t="n">
-        <v>-677363.9503352535</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>31.16</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>31.69</v>
-      </c>
-      <c r="C100" t="n">
-        <v>31.69</v>
-      </c>
-      <c r="D100" t="n">
-        <v>31.69</v>
-      </c>
-      <c r="E100" t="n">
-        <v>31.69</v>
-      </c>
-      <c r="F100" t="n">
-        <v>1392.8844</v>
-      </c>
-      <c r="G100" t="n">
-        <v>-677363.9503352535</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>31.16</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>31.79</v>
-      </c>
-      <c r="C101" t="n">
-        <v>31.79</v>
-      </c>
-      <c r="D101" t="n">
-        <v>31.79</v>
-      </c>
-      <c r="E101" t="n">
-        <v>31.79</v>
-      </c>
-      <c r="F101" t="n">
-        <v>31.45643284051588</v>
-      </c>
-      <c r="G101" t="n">
-        <v>-677332.4939024129</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>31.16</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>31.79</v>
-      </c>
-      <c r="C102" t="n">
-        <v>31.79</v>
-      </c>
-      <c r="D102" t="n">
-        <v>31.79</v>
-      </c>
-      <c r="E102" t="n">
-        <v>31.79</v>
-      </c>
-      <c r="F102" t="n">
-        <v>1004.718464926077</v>
-      </c>
-      <c r="G102" t="n">
-        <v>-677332.4939024129</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>31.16</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>31.79</v>
-      </c>
-      <c r="C103" t="n">
-        <v>31.79</v>
-      </c>
-      <c r="D103" t="n">
-        <v>31.79</v>
-      </c>
-      <c r="E103" t="n">
-        <v>31.79</v>
-      </c>
-      <c r="F103" t="n">
-        <v>425.1336022334067</v>
-      </c>
-      <c r="G103" t="n">
-        <v>-677332.4939024129</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>31.16</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>31.79</v>
-      </c>
-      <c r="C104" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="D104" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="E104" t="n">
-        <v>31.79</v>
-      </c>
-      <c r="F104" t="n">
-        <v>86011.0246</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-591321.4693024129</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>31.16</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>31.69</v>
-      </c>
-      <c r="C105" t="n">
-        <v>31.69</v>
-      </c>
-      <c r="D105" t="n">
-        <v>31.69</v>
-      </c>
-      <c r="E105" t="n">
-        <v>31.69</v>
-      </c>
-      <c r="F105" t="n">
-        <v>28114.6013</v>
-      </c>
-      <c r="G105" t="n">
-        <v>-619436.0706024129</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>31.16</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="C106" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="D106" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="E106" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="F106" t="n">
-        <v>1071.1815</v>
-      </c>
-      <c r="G106" t="n">
-        <v>-618364.889102413</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>31.16</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>31.69</v>
-      </c>
-      <c r="C107" t="n">
-        <v>31.69</v>
-      </c>
-      <c r="D107" t="n">
-        <v>31.69</v>
-      </c>
-      <c r="E107" t="n">
-        <v>31.69</v>
-      </c>
-      <c r="F107" t="n">
-        <v>798.9063</v>
-      </c>
-      <c r="G107" t="n">
-        <v>-619163.795402413</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>31.16</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="C108" t="n">
-        <v>32.02</v>
-      </c>
-      <c r="D108" t="n">
-        <v>32.02</v>
-      </c>
-      <c r="E108" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="F108" t="n">
-        <v>63695.97677001874</v>
-      </c>
-      <c r="G108" t="n">
-        <v>-555467.8186323943</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>31.16</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>32.02</v>
-      </c>
-      <c r="C109" t="n">
-        <v>32.02</v>
-      </c>
-      <c r="D109" t="n">
-        <v>32.02</v>
-      </c>
-      <c r="E109" t="n">
-        <v>32.02</v>
-      </c>
-      <c r="F109" t="n">
-        <v>31292.8634</v>
-      </c>
-      <c r="G109" t="n">
-        <v>-555467.8186323943</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>31.16</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>32.02</v>
-      </c>
-      <c r="C110" t="n">
-        <v>32.02</v>
-      </c>
-      <c r="D110" t="n">
-        <v>32.02</v>
-      </c>
-      <c r="E110" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="F110" t="n">
-        <v>5088.8783</v>
-      </c>
-      <c r="G110" t="n">
-        <v>-555467.8186323943</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>31.16</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>32.02</v>
-      </c>
-      <c r="C111" t="n">
-        <v>32.32</v>
-      </c>
-      <c r="D111" t="n">
-        <v>32.32</v>
-      </c>
-      <c r="E111" t="n">
-        <v>32.02</v>
-      </c>
-      <c r="F111" t="n">
-        <v>21840.70952998126</v>
-      </c>
-      <c r="G111" t="n">
-        <v>-533627.1091024131</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>31.16</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>32.32</v>
-      </c>
-      <c r="C112" t="n">
-        <v>32.32</v>
-      </c>
-      <c r="D112" t="n">
-        <v>32.32</v>
-      </c>
-      <c r="E112" t="n">
-        <v>32.32</v>
-      </c>
-      <c r="F112" t="n">
-        <v>12839.2872</v>
-      </c>
-      <c r="G112" t="n">
-        <v>-533627.1091024131</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>31.16</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>32.32</v>
-      </c>
-      <c r="C113" t="n">
-        <v>32.32</v>
-      </c>
-      <c r="D113" t="n">
-        <v>32.32</v>
-      </c>
-      <c r="E113" t="n">
-        <v>32.32</v>
-      </c>
-      <c r="F113" t="n">
-        <v>50</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-533627.1091024131</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>31.16</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>32.32</v>
-      </c>
-      <c r="C114" t="n">
-        <v>32.32</v>
-      </c>
-      <c r="D114" t="n">
-        <v>32.32</v>
-      </c>
-      <c r="E114" t="n">
-        <v>32.32</v>
-      </c>
-      <c r="F114" t="n">
-        <v>9187.378000000001</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-533627.1091024131</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>31.16</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>32.39</v>
-      </c>
-      <c r="C115" t="n">
-        <v>32.39</v>
-      </c>
-      <c r="D115" t="n">
-        <v>32.39</v>
-      </c>
-      <c r="E115" t="n">
-        <v>32.39</v>
-      </c>
-      <c r="F115" t="n">
-        <v>6667.5454</v>
-      </c>
-      <c r="G115" t="n">
-        <v>-526959.5637024131</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>31.16</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>32.35</v>
-      </c>
-      <c r="C116" t="n">
-        <v>32.35</v>
-      </c>
-      <c r="D116" t="n">
-        <v>32.35</v>
-      </c>
-      <c r="E116" t="n">
-        <v>32.35</v>
-      </c>
-      <c r="F116" t="n">
-        <v>50</v>
-      </c>
-      <c r="G116" t="n">
-        <v>-527009.5637024131</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>31.16</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>32.35</v>
-      </c>
-      <c r="C117" t="n">
-        <v>32.35</v>
-      </c>
-      <c r="D117" t="n">
-        <v>32.35</v>
-      </c>
-      <c r="E117" t="n">
-        <v>32.35</v>
-      </c>
-      <c r="F117" t="n">
-        <v>20</v>
-      </c>
-      <c r="G117" t="n">
-        <v>-527009.5637024131</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>31.16</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>32.03</v>
-      </c>
-      <c r="C118" t="n">
-        <v>32.03</v>
-      </c>
-      <c r="D118" t="n">
-        <v>32.03</v>
-      </c>
-      <c r="E118" t="n">
-        <v>32.03</v>
-      </c>
-      <c r="F118" t="n">
-        <v>1796.4071</v>
-      </c>
-      <c r="G118" t="n">
-        <v>-528805.9708024131</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>31.16</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>32.03</v>
-      </c>
-      <c r="C119" t="n">
-        <v>32.03</v>
-      </c>
-      <c r="D119" t="n">
-        <v>32.03</v>
-      </c>
-      <c r="E119" t="n">
-        <v>32.03</v>
-      </c>
-      <c r="F119" t="n">
-        <v>15486.5501</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-528805.9708024131</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>31.16</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>32.04</v>
-      </c>
-      <c r="C120" t="n">
-        <v>32.03</v>
-      </c>
-      <c r="D120" t="n">
-        <v>32.04</v>
-      </c>
-      <c r="E120" t="n">
-        <v>32.03</v>
-      </c>
-      <c r="F120" t="n">
-        <v>29094.6828</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-528805.9708024131</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>31.16</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4634,11 +4426,13 @@
         <v>-500191.2077024131</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>32.03</v>
+      </c>
       <c r="J121" t="n">
-        <v>31.16</v>
+        <v>32.03</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -4673,11 +4467,13 @@
         <v>-498191.2077024131</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>32.1</v>
+      </c>
       <c r="J122" t="n">
-        <v>31.16</v>
+        <v>32.03</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -4712,13 +4508,13 @@
         <v>-514337.9185024131</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>32.3</v>
       </c>
       <c r="J123" t="n">
-        <v>31.16</v>
+        <v>32.03</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -4753,13 +4549,13 @@
         <v>-483304.5797879642</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>32.1</v>
       </c>
       <c r="J124" t="n">
-        <v>31.16</v>
+        <v>32.03</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -4794,13 +4590,13 @@
         <v>-483304.5797879642</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>32.39</v>
       </c>
       <c r="J125" t="n">
-        <v>31.16</v>
+        <v>32.03</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -4839,7 +4635,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>31.16</v>
+        <v>32.03</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -4878,7 +4674,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>31.16</v>
+        <v>32.03</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -4917,7 +4713,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>31.16</v>
+        <v>32.03</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -4956,7 +4752,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>31.16</v>
+        <v>32.03</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -4995,7 +4791,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>31.16</v>
+        <v>32.03</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5030,13 +4826,11 @@
         <v>-475447.4107024131</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
-      </c>
-      <c r="I131" t="n">
-        <v>32.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>31.16</v>
+        <v>32.03</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5075,7 +4869,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>31.16</v>
+        <v>32.03</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5110,13 +4904,11 @@
         <v>-471156.8535024131</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
-      </c>
-      <c r="I133" t="n">
-        <v>32.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>31.16</v>
+        <v>32.03</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5151,13 +4943,11 @@
         <v>-436166.5804024131</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
-      </c>
-      <c r="I134" t="n">
-        <v>32.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>31.16</v>
+        <v>32.03</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5196,7 +4986,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>31.16</v>
+        <v>32.03</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5235,7 +5025,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>31.16</v>
+        <v>32.03</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5274,7 +5064,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>31.16</v>
+        <v>32.03</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5313,7 +5103,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>31.16</v>
+        <v>32.03</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5352,7 +5142,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>31.16</v>
+        <v>32.03</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5391,7 +5181,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>31.16</v>
+        <v>32.03</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5430,7 +5220,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>31.16</v>
+        <v>32.03</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5469,7 +5259,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>31.16</v>
+        <v>32.03</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5508,7 +5298,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>31.16</v>
+        <v>32.03</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5547,7 +5337,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>31.16</v>
+        <v>32.03</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5586,7 +5376,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>31.16</v>
+        <v>32.03</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5625,7 +5415,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>31.16</v>
+        <v>32.03</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5664,7 +5454,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>31.16</v>
+        <v>32.03</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -5703,7 +5493,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>31.16</v>
+        <v>32.03</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -5742,7 +5532,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>31.16</v>
+        <v>32.03</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -5777,417 +5567,487 @@
         <v>-461181.3455797716</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>31.16</v>
+        <v>32.03</v>
       </c>
       <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="C151" t="n">
+        <v>33.59</v>
+      </c>
+      <c r="D151" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="E151" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="F151" t="n">
+        <v>9579.506600000001</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-470760.8521797716</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>32.03</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>33.59</v>
+      </c>
+      <c r="C152" t="n">
+        <v>33.59</v>
+      </c>
+      <c r="D152" t="n">
+        <v>33.59</v>
+      </c>
+      <c r="E152" t="n">
+        <v>33.59</v>
+      </c>
+      <c r="F152" t="n">
+        <v>11479.3666</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-470760.8521797716</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>32.03</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="C153" t="n">
+        <v>33.36</v>
+      </c>
+      <c r="D153" t="n">
+        <v>33.59</v>
+      </c>
+      <c r="E153" t="n">
+        <v>33.36</v>
+      </c>
+      <c r="F153" t="n">
+        <v>54782.49834078595</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-525543.3505205575</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>32.03</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>33.59</v>
+      </c>
+      <c r="C154" t="n">
+        <v>33.59</v>
+      </c>
+      <c r="D154" t="n">
+        <v>33.59</v>
+      </c>
+      <c r="E154" t="n">
+        <v>33.59</v>
+      </c>
+      <c r="F154" t="n">
+        <v>21425.50415921405</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-504117.8463613435</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>32.03</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>33.67</v>
+      </c>
+      <c r="C155" t="n">
+        <v>33.67</v>
+      </c>
+      <c r="D155" t="n">
+        <v>33.67</v>
+      </c>
+      <c r="E155" t="n">
+        <v>33.67</v>
+      </c>
+      <c r="F155" t="n">
+        <v>1276.3209</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-502841.5254613435</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>32.03</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>33.51</v>
+      </c>
+      <c r="C156" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="D156" t="n">
+        <v>33.51</v>
+      </c>
+      <c r="E156" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="F156" t="n">
+        <v>57481.0759</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-560322.6013613435</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>32.03</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>33.51</v>
+      </c>
+      <c r="C157" t="n">
+        <v>33.51</v>
+      </c>
+      <c r="D157" t="n">
+        <v>33.51</v>
+      </c>
+      <c r="E157" t="n">
+        <v>33.51</v>
+      </c>
+      <c r="F157" t="n">
+        <v>25943.8202</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-534378.7811613436</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>32.03</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>33.52</v>
+      </c>
+      <c r="C158" t="n">
+        <v>33.52</v>
+      </c>
+      <c r="D158" t="n">
+        <v>33.52</v>
+      </c>
+      <c r="E158" t="n">
+        <v>33.52</v>
+      </c>
+      <c r="F158" t="n">
+        <v>7070.2492</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-527308.5319613436</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>32.03</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>33.69</v>
+      </c>
+      <c r="C159" t="n">
+        <v>33.69</v>
+      </c>
+      <c r="D159" t="n">
+        <v>33.69</v>
+      </c>
+      <c r="E159" t="n">
+        <v>33.69</v>
+      </c>
+      <c r="F159" t="n">
+        <v>8349.6266</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-518958.9053613436</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>32.03</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>33.69</v>
+      </c>
+      <c r="C160" t="n">
+        <v>33.69</v>
+      </c>
+      <c r="D160" t="n">
+        <v>33.69</v>
+      </c>
+      <c r="E160" t="n">
+        <v>33.69</v>
+      </c>
+      <c r="F160" t="n">
+        <v>3714.905</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-518958.9053613436</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>32.03</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>33.52</v>
+      </c>
+      <c r="C161" t="n">
+        <v>33.51</v>
+      </c>
+      <c r="D161" t="n">
+        <v>33.52</v>
+      </c>
+      <c r="E161" t="n">
+        <v>33.51</v>
+      </c>
+      <c r="F161" t="n">
+        <v>139292.5418</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-658251.4471613436</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>32.03</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>33.51</v>
+      </c>
+      <c r="C162" t="n">
+        <v>32.94</v>
+      </c>
+      <c r="D162" t="n">
+        <v>33.51</v>
+      </c>
+      <c r="E162" t="n">
+        <v>32.94</v>
+      </c>
+      <c r="F162" t="n">
+        <v>374037.4711</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-1032288.918261344</v>
+      </c>
+      <c r="H162" t="n">
+        <v>2</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>32.03</v>
+      </c>
+      <c r="K162" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L150" t="n">
-        <v>1.075551989730424</v>
-      </c>
-      <c r="M150" t="n">
-        <v>1.109692206941716</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="C151" t="n">
-        <v>33.59</v>
-      </c>
-      <c r="D151" t="n">
-        <v>33.6</v>
-      </c>
-      <c r="E151" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="F151" t="n">
-        <v>9579.506600000001</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-470760.8521797716</v>
-      </c>
-      <c r="H151" t="n">
-        <v>3</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>33.59</v>
-      </c>
-      <c r="C152" t="n">
-        <v>33.59</v>
-      </c>
-      <c r="D152" t="n">
-        <v>33.59</v>
-      </c>
-      <c r="E152" t="n">
-        <v>33.59</v>
-      </c>
-      <c r="F152" t="n">
-        <v>11479.3666</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-470760.8521797716</v>
-      </c>
-      <c r="H152" t="n">
-        <v>3</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="C153" t="n">
-        <v>33.36</v>
-      </c>
-      <c r="D153" t="n">
-        <v>33.59</v>
-      </c>
-      <c r="E153" t="n">
-        <v>33.36</v>
-      </c>
-      <c r="F153" t="n">
-        <v>54782.49834078595</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-525543.3505205575</v>
-      </c>
-      <c r="H153" t="n">
-        <v>3</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>33.59</v>
-      </c>
-      <c r="C154" t="n">
-        <v>33.59</v>
-      </c>
-      <c r="D154" t="n">
-        <v>33.59</v>
-      </c>
-      <c r="E154" t="n">
-        <v>33.59</v>
-      </c>
-      <c r="F154" t="n">
-        <v>21425.50415921405</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-504117.8463613435</v>
-      </c>
-      <c r="H154" t="n">
-        <v>3</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>33.67</v>
-      </c>
-      <c r="C155" t="n">
-        <v>33.67</v>
-      </c>
-      <c r="D155" t="n">
-        <v>33.67</v>
-      </c>
-      <c r="E155" t="n">
-        <v>33.67</v>
-      </c>
-      <c r="F155" t="n">
-        <v>1276.3209</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-502841.5254613435</v>
-      </c>
-      <c r="H155" t="n">
-        <v>3</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>33.51</v>
-      </c>
-      <c r="C156" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="D156" t="n">
-        <v>33.51</v>
-      </c>
-      <c r="E156" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="F156" t="n">
-        <v>57481.0759</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-560322.6013613435</v>
-      </c>
-      <c r="H156" t="n">
-        <v>3</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>33.51</v>
-      </c>
-      <c r="C157" t="n">
-        <v>33.51</v>
-      </c>
-      <c r="D157" t="n">
-        <v>33.51</v>
-      </c>
-      <c r="E157" t="n">
-        <v>33.51</v>
-      </c>
-      <c r="F157" t="n">
-        <v>25943.8202</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-534378.7811613436</v>
-      </c>
-      <c r="H157" t="n">
-        <v>3</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>33.52</v>
-      </c>
-      <c r="C158" t="n">
-        <v>33.52</v>
-      </c>
-      <c r="D158" t="n">
-        <v>33.52</v>
-      </c>
-      <c r="E158" t="n">
-        <v>33.52</v>
-      </c>
-      <c r="F158" t="n">
-        <v>7070.2492</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-527308.5319613436</v>
-      </c>
-      <c r="H158" t="n">
-        <v>3</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>33.69</v>
-      </c>
-      <c r="C159" t="n">
-        <v>33.69</v>
-      </c>
-      <c r="D159" t="n">
-        <v>33.69</v>
-      </c>
-      <c r="E159" t="n">
-        <v>33.69</v>
-      </c>
-      <c r="F159" t="n">
-        <v>8349.6266</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-518958.9053613436</v>
-      </c>
-      <c r="H159" t="n">
-        <v>3</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>33.69</v>
-      </c>
-      <c r="C160" t="n">
-        <v>33.69</v>
-      </c>
-      <c r="D160" t="n">
-        <v>33.69</v>
-      </c>
-      <c r="E160" t="n">
-        <v>33.69</v>
-      </c>
-      <c r="F160" t="n">
-        <v>3714.905</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-518958.9053613436</v>
-      </c>
-      <c r="H160" t="n">
-        <v>3</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>33.52</v>
-      </c>
-      <c r="C161" t="n">
-        <v>33.51</v>
-      </c>
-      <c r="D161" t="n">
-        <v>33.52</v>
-      </c>
-      <c r="E161" t="n">
-        <v>33.51</v>
-      </c>
-      <c r="F161" t="n">
-        <v>139292.5418</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-658251.4471613436</v>
-      </c>
-      <c r="H161" t="n">
-        <v>3</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>33.51</v>
-      </c>
-      <c r="C162" t="n">
-        <v>32.94</v>
-      </c>
-      <c r="D162" t="n">
-        <v>33.51</v>
-      </c>
-      <c r="E162" t="n">
-        <v>32.94</v>
-      </c>
-      <c r="F162" t="n">
-        <v>374037.4711</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-1032288.918261344</v>
-      </c>
-      <c r="H162" t="n">
-        <v>3</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
-        <v>1</v>
+        <v>1.023410864814237</v>
       </c>
       <c r="M162" t="inlineStr"/>
     </row>
@@ -6214,7 +6074,7 @@
         <v>-1032288.918261344</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6247,7 +6107,7 @@
         <v>-1033985.161761344</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6280,7 +6140,7 @@
         <v>-1026051.770977761</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6313,7 +6173,7 @@
         <v>-1026302.960177762</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6346,7 +6206,7 @@
         <v>-1032655.497077761</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6379,7 +6239,7 @@
         <v>-1035343.876977762</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6412,7 +6272,7 @@
         <v>-1019971.781777762</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6445,7 +6305,7 @@
         <v>-1019971.780677762</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6478,7 +6338,7 @@
         <v>-995487.1540777616</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6511,7 +6371,7 @@
         <v>-1045177.208377762</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6544,7 +6404,7 @@
         <v>-1044821.614277762</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6577,7 +6437,7 @@
         <v>-1029058.430677762</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6610,7 +6470,7 @@
         <v>-1029042.430677762</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6643,7 +6503,7 @@
         <v>-1029170.430677762</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6676,7 +6536,7 @@
         <v>-1029154.430677762</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6709,7 +6569,7 @@
         <v>-1049751.879677762</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6742,7 +6602,7 @@
         <v>-1049751.879677762</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6775,7 +6635,7 @@
         <v>-1049751.879677762</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6808,7 +6668,7 @@
         <v>-1044004.77844616</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6841,7 +6701,7 @@
         <v>-1097768.26984616</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6907,7 +6767,7 @@
         <v>-1124233.44647357</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6940,7 +6800,7 @@
         <v>-1119732.82767357</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7006,7 +6866,7 @@
         <v>-1043265.091678204</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7072,7 +6932,7 @@
         <v>-720527.6267379823</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7237,7 +7097,7 @@
         <v>-749998.8480927197</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7270,7 +7130,7 @@
         <v>-738799.2283927196</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7303,7 +7163,7 @@
         <v>-738190.7707927197</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7336,7 +7196,7 @@
         <v>-738240.7707927197</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7369,7 +7229,7 @@
         <v>-738240.7707927197</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7402,7 +7262,7 @@
         <v>-729329.9923927197</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7435,7 +7295,7 @@
         <v>-724885.5399927198</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7468,7 +7328,7 @@
         <v>-726404.3888927198</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7567,7 +7427,7 @@
         <v>-719851.1343927197</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7600,7 +7460,7 @@
         <v>-716776.5280902955</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7633,7 +7493,7 @@
         <v>-716776.5280902955</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7699,7 +7559,7 @@
         <v>-711366.7563806277</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7732,7 +7592,7 @@
         <v>-711366.7563806277</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7765,7 +7625,7 @@
         <v>-740866.7563806277</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7798,7 +7658,7 @@
         <v>-730458.1986806277</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7864,7 +7724,7 @@
         <v>-730458.1986806277</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7897,7 +7757,7 @@
         <v>-730024.0664806277</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7930,7 +7790,7 @@
         <v>-728418.0152806278</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7963,7 +7823,7 @@
         <v>-687077.5891658241</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7996,7 +7856,7 @@
         <v>-687077.5891658241</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8392,7 +8252,7 @@
         <v>-734679.6969902954</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8425,7 +8285,7 @@
         <v>-735179.6969902954</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8458,7 +8318,7 @@
         <v>-735179.6969902954</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8689,7 +8549,7 @@
         <v>-861346.9429902954</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8722,7 +8582,7 @@
         <v>-861346.9429902954</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -9019,7 +8879,7 @@
         <v>-999616.7271902954</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9052,7 +8912,7 @@
         <v>-1004451.540490295</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9085,7 +8945,7 @@
         <v>-1004451.540490295</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9118,7 +8978,7 @@
         <v>-1026768.612890295</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9151,7 +9011,7 @@
         <v>-1026768.612890295</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9184,7 +9044,7 @@
         <v>-1026768.612890295</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9217,7 +9077,7 @@
         <v>-1025089.071290295</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9250,7 +9110,7 @@
         <v>-1025250.610590295</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9283,7 +9143,7 @@
         <v>-1022929.904690295</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9316,7 +9176,7 @@
         <v>-1022929.904690295</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9349,7 +9209,7 @@
         <v>-1022929.904690295</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9382,7 +9242,7 @@
         <v>-1135465.312390295</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9448,7 +9308,7 @@
         <v>-1169506.297290295</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9481,7 +9341,7 @@
         <v>-1169451.312964277</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9514,7 +9374,7 @@
         <v>-1194459.929664277</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9646,7 +9506,7 @@
         <v>-1198160.131364277</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9811,7 +9671,7 @@
         <v>268737.6459357233</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -12946,7 +12806,7 @@
         <v>596771.7688926568</v>
       </c>
       <c r="H367" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12979,7 +12839,7 @@
         <v>596771.7688926568</v>
       </c>
       <c r="H368" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -13012,7 +12872,7 @@
         <v>603566.0294926568</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -13045,7 +12905,7 @@
         <v>600543.1990926568</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -13111,7 +12971,7 @@
         <v>506132.2602926568</v>
       </c>
       <c r="H372" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -13144,7 +13004,7 @@
         <v>506132.2602926568</v>
       </c>
       <c r="H373" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -13177,7 +13037,7 @@
         <v>506132.2602926568</v>
       </c>
       <c r="H374" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -13210,7 +13070,7 @@
         <v>491453.9022926568</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -13243,7 +13103,7 @@
         <v>501931.7848926568</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -13276,7 +13136,7 @@
         <v>491195.4168926568</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -13705,7 +13565,7 @@
         <v>381970.2296926568</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13738,7 +13598,7 @@
         <v>381970.2296926568</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13771,7 +13631,7 @@
         <v>381970.2296926568</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13837,7 +13697,7 @@
         <v>363590.9301926568</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13969,7 +13829,7 @@
         <v>363622.6582926568</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -15762,6 +15622,6 @@
       <c r="M452" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest FCT.xlsx
+++ b/BackTest/2020-01-19 BackTest FCT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-171263.9187338848</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-170421.9187338848</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-176043.0547578011</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-176043.0547578011</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-281373.6618578011</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-281173.6618578011</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-281812.5883578011</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-341087.6912578011</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-341072.6912578011</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-405077.1077352541</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-828028.604635254</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-828214.062835254</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-818780.309635254</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-792601.091035254</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-792601.091035254</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-792601.091035254</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-792601.091035254</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-792741.5549352539</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-792741.5549352539</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-794859.465335254</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1738,10 +1738,14 @@
         <v>-879312.022535254</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="J41" t="n">
+        <v>31.23</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
@@ -1771,11 +1775,19 @@
         <v>-932701.910235254</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>31.05</v>
+      </c>
+      <c r="J42" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1804,11 +1816,19 @@
         <v>-935203.5392352539</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>30.91</v>
+      </c>
+      <c r="J43" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1837,11 +1857,19 @@
         <v>-917867.7657352539</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="J44" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1870,11 +1898,19 @@
         <v>-5913984.602735254</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>31.19</v>
+      </c>
+      <c r="J45" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1906,8 +1942,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1939,8 +1981,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1972,8 +2020,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2005,8 +2059,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2038,8 +2098,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2071,8 +2137,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2104,8 +2176,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2137,8 +2215,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2170,8 +2254,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2203,8 +2293,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2236,8 +2332,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2269,8 +2371,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2302,8 +2410,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2335,8 +2449,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2368,8 +2488,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2401,8 +2527,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2434,8 +2566,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2467,8 +2605,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2500,8 +2644,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2533,8 +2683,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2566,8 +2722,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2599,8 +2761,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2632,8 +2800,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2665,8 +2839,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2698,8 +2878,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2731,8 +2917,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2764,8 +2956,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2797,8 +2995,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2830,8 +3034,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2863,8 +3073,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2896,8 +3112,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2929,8 +3151,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2962,8 +3190,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2995,8 +3229,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3028,8 +3268,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3061,8 +3307,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3094,8 +3346,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3127,8 +3385,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3160,8 +3424,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3193,8 +3463,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3226,8 +3502,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3259,8 +3541,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3292,8 +3580,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3325,8 +3619,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3358,8 +3658,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3391,8 +3697,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3421,15 +3733,17 @@
         <v>-692488.5482352535</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>31</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>31</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
+        <v>31.23</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3462,11 +3776,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>31</v>
+        <v>31.23</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L93" t="n">
@@ -3501,11 +3815,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>31</v>
+        <v>31.23</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L94" t="n">
@@ -3539,8 +3853,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3572,8 +3892,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3605,8 +3931,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3638,8 +3970,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3671,8 +4009,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3704,8 +4048,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3737,8 +4087,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3770,8 +4126,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3803,8 +4165,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3836,8 +4204,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3869,8 +4243,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3902,8 +4282,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3935,8 +4321,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3968,8 +4360,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4001,8 +4399,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4034,8 +4438,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4067,8 +4477,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4100,8 +4516,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4133,8 +4555,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4166,8 +4594,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4199,8 +4633,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4229,17 +4669,19 @@
         <v>-527009.5637024131</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>32.39</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>32.39</v>
-      </c>
-      <c r="K116" t="inlineStr"/>
+        <v>31.23</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L116" t="n">
-        <v>1</v>
+        <v>1.030862952289465</v>
       </c>
       <c r="M116" t="inlineStr"/>
     </row>
@@ -4266,19 +4708,11 @@
         <v>-527009.5637024131</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>32.35</v>
-      </c>
-      <c r="J117" t="n">
-        <v>32.39</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4307,19 +4741,11 @@
         <v>-528805.9708024131</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>32.35</v>
-      </c>
-      <c r="J118" t="n">
-        <v>32.39</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4348,14 +4774,10 @@
         <v>-528805.9708024131</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>32.03</v>
-      </c>
-      <c r="J119" t="n">
-        <v>32.03</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
@@ -4385,19 +4807,11 @@
         <v>-528805.9708024131</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>32.03</v>
-      </c>
-      <c r="J120" t="n">
-        <v>32.03</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4426,19 +4840,11 @@
         <v>-500191.2077024131</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>32.03</v>
-      </c>
-      <c r="J121" t="n">
-        <v>32.03</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4467,19 +4873,11 @@
         <v>-498191.2077024131</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>32.1</v>
-      </c>
-      <c r="J122" t="n">
-        <v>32.03</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4508,19 +4906,11 @@
         <v>-514337.9185024131</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="J123" t="n">
-        <v>32.03</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4549,19 +4939,11 @@
         <v>-483304.5797879642</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>32.1</v>
-      </c>
-      <c r="J124" t="n">
-        <v>32.03</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4590,19 +4972,11 @@
         <v>-483304.5797879642</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>32.39</v>
-      </c>
-      <c r="J125" t="n">
-        <v>32.03</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4631,17 +5005,11 @@
         <v>-483304.5797879642</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>32.03</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4670,17 +5038,11 @@
         <v>-483304.5797879642</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>32.03</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4709,17 +5071,11 @@
         <v>-472447.4107024131</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>32.03</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4748,17 +5104,11 @@
         <v>-472447.4107024131</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>32.03</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4790,14 +5140,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>32.03</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4826,17 +5170,11 @@
         <v>-475447.4107024131</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>32.03</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4865,17 +5203,11 @@
         <v>-471156.8535024131</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>32.03</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4904,17 +5236,11 @@
         <v>-471156.8535024131</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>32.03</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4943,17 +5269,11 @@
         <v>-436166.5804024131</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>32.03</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4982,17 +5302,11 @@
         <v>-495166.5804024131</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>32.03</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5021,17 +5335,11 @@
         <v>-495166.5804024131</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>32.03</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5060,17 +5368,11 @@
         <v>-502503.2568024131</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>32.03</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5099,17 +5401,11 @@
         <v>-502487.2568024131</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>32.03</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5138,17 +5434,11 @@
         <v>-502487.2568024131</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>32.03</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5177,17 +5467,11 @@
         <v>-502487.2568024131</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>32.03</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5219,14 +5503,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>32.03</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5258,14 +5536,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>32.03</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5297,14 +5569,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>32.03</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5333,17 +5599,11 @@
         <v>-438025.0997024131</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>32.03</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5372,17 +5632,11 @@
         <v>-394785.7371024131</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>32.03</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5411,17 +5665,11 @@
         <v>-394785.7371024131</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>32.03</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5450,17 +5698,11 @@
         <v>-393708.2013024131</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>32.03</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5489,17 +5731,11 @@
         <v>-393708.2013024131</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>32.03</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5528,17 +5764,11 @@
         <v>-378460.6101797716</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>32.03</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5567,17 +5797,11 @@
         <v>-461181.3455797716</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>32.03</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5606,17 +5830,11 @@
         <v>-470760.8521797716</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>32.03</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5645,17 +5863,11 @@
         <v>-470760.8521797716</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>32.03</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5684,17 +5896,11 @@
         <v>-525543.3505205575</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>32.03</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5723,17 +5929,11 @@
         <v>-504117.8463613435</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>32.03</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5762,17 +5962,11 @@
         <v>-502841.5254613435</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>32.03</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5801,17 +5995,11 @@
         <v>-560322.6013613435</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>32.03</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5840,17 +6028,11 @@
         <v>-534378.7811613436</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>32.03</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5879,17 +6061,11 @@
         <v>-527308.5319613436</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>32.03</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5918,17 +6094,11 @@
         <v>-518958.9053613436</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>32.03</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5957,17 +6127,11 @@
         <v>-518958.9053613436</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>32.03</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5999,14 +6163,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>32.03</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6035,19 +6193,13 @@
         <v>-1032288.918261344</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>32.03</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
-        <v>1.023410864814237</v>
+        <v>1</v>
       </c>
       <c r="M162" t="inlineStr"/>
     </row>
@@ -6074,7 +6226,7 @@
         <v>-1032288.918261344</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6107,7 +6259,7 @@
         <v>-1033985.161761344</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6140,7 +6292,7 @@
         <v>-1026051.770977761</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6173,7 +6325,7 @@
         <v>-1026302.960177762</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6206,7 +6358,7 @@
         <v>-1032655.497077761</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6239,7 +6391,7 @@
         <v>-1035343.876977762</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6272,7 +6424,7 @@
         <v>-1019971.781777762</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6305,7 +6457,7 @@
         <v>-1019971.780677762</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6338,7 +6490,7 @@
         <v>-995487.1540777616</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6371,7 +6523,7 @@
         <v>-1045177.208377762</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6404,7 +6556,7 @@
         <v>-1044821.614277762</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6437,7 +6589,7 @@
         <v>-1029058.430677762</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6470,7 +6622,7 @@
         <v>-1029042.430677762</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6503,7 +6655,7 @@
         <v>-1029170.430677762</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6536,7 +6688,7 @@
         <v>-1029154.430677762</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6569,7 +6721,7 @@
         <v>-1049751.879677762</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6602,7 +6754,7 @@
         <v>-1049751.879677762</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6635,7 +6787,7 @@
         <v>-1049751.879677762</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6668,7 +6820,7 @@
         <v>-1044004.77844616</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6767,7 +6919,7 @@
         <v>-1124233.44647357</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6800,7 +6952,7 @@
         <v>-1119732.82767357</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6866,7 +7018,7 @@
         <v>-1043265.091678204</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7097,7 +7249,7 @@
         <v>-749998.8480927197</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7130,7 +7282,7 @@
         <v>-738799.2283927196</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7163,7 +7315,7 @@
         <v>-738190.7707927197</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7328,7 +7480,7 @@
         <v>-726404.3888927198</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -9341,10 +9493,14 @@
         <v>-1169451.312964277</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="J262" t="n">
+        <v>31.4</v>
+      </c>
       <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
@@ -9377,8 +9533,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9410,8 +9572,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9440,11 +9608,19 @@
         <v>-1182586.183364277</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="J265" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9473,11 +9649,19 @@
         <v>-1182486.183364277</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="J266" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9509,8 +9693,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9542,8 +9732,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9575,8 +9771,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9608,8 +9810,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9641,8 +9849,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9674,8 +9888,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9707,8 +9927,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9740,8 +9966,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9773,8 +10005,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9806,8 +10044,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9839,8 +10083,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9872,8 +10122,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9905,8 +10161,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9938,8 +10200,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9971,8 +10239,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10004,8 +10278,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10037,8 +10317,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10070,8 +10356,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10103,8 +10395,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10136,8 +10434,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10169,8 +10473,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10202,8 +10512,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10235,8 +10551,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10268,8 +10590,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10301,8 +10629,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10334,8 +10668,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10367,8 +10707,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10400,8 +10746,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10433,8 +10785,14 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10466,8 +10824,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10499,8 +10863,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10532,8 +10902,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10565,8 +10941,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10598,8 +10980,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10631,8 +11019,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10664,8 +11058,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10697,8 +11097,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10730,8 +11136,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10763,8 +11175,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10796,8 +11214,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10829,8 +11253,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10862,8 +11292,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10895,8 +11331,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10928,8 +11370,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10961,8 +11409,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10994,8 +11448,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11027,8 +11487,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11060,8 +11526,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11093,8 +11565,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11126,8 +11604,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11159,8 +11643,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11192,8 +11682,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11225,8 +11721,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11258,8 +11760,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11291,8 +11799,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11324,8 +11838,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11357,8 +11877,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11390,8 +11916,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11423,8 +11955,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11456,8 +11994,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11489,8 +12033,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11522,8 +12072,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11555,8 +12111,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11588,8 +12150,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11621,8 +12189,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11654,8 +12228,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11687,8 +12267,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11720,8 +12306,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11753,8 +12345,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11786,8 +12384,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11819,8 +12423,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11852,8 +12462,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11885,8 +12501,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11918,8 +12540,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11951,8 +12579,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11984,8 +12618,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12017,8 +12657,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12050,8 +12696,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12083,8 +12735,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12116,8 +12774,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12149,8 +12813,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12182,8 +12852,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12215,8 +12891,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12245,13 +12927,19 @@
         <v>698475.6892926567</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L350" t="n">
-        <v>1</v>
+        <v>1.042770700636943</v>
       </c>
       <c r="M350" t="inlineStr"/>
     </row>
@@ -12278,7 +12966,7 @@
         <v>698475.6892926567</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12311,7 +12999,7 @@
         <v>733460.6120926568</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12344,7 +13032,7 @@
         <v>499282.0627926568</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12377,7 +13065,7 @@
         <v>603003.1302926568</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12410,7 +13098,7 @@
         <v>708420.9512926568</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12443,7 +13131,7 @@
         <v>777349.1314926569</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12476,7 +13164,7 @@
         <v>777349.1314926569</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12509,7 +13197,7 @@
         <v>767091.1503926569</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12542,7 +13230,7 @@
         <v>755456.5105926569</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12575,7 +13263,7 @@
         <v>755456.5105926569</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12608,7 +13296,7 @@
         <v>763560.0463926569</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12641,7 +13329,7 @@
         <v>691430.1263926568</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12674,7 +13362,7 @@
         <v>681064.5270926568</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12707,7 +13395,7 @@
         <v>681064.5270926568</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12740,7 +13428,7 @@
         <v>685821.3961926568</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12773,7 +13461,7 @@
         <v>596771.7688926568</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12806,7 +13494,7 @@
         <v>596771.7688926568</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12839,7 +13527,7 @@
         <v>596771.7688926568</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12938,7 +13626,7 @@
         <v>579328.9484926568</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12971,7 +13659,7 @@
         <v>506132.2602926568</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -13169,7 +13857,7 @@
         <v>493863.5001926568</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -13202,7 +13890,7 @@
         <v>478874.6617926568</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -13235,7 +13923,7 @@
         <v>478174.6617926568</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -13268,7 +13956,7 @@
         <v>448884.7453926568</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -13301,7 +13989,7 @@
         <v>334423.2851926568</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13565,7 +14253,7 @@
         <v>381970.2296926568</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13598,7 +14286,7 @@
         <v>381970.2296926568</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13631,7 +14319,7 @@
         <v>381970.2296926568</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13697,7 +14385,7 @@
         <v>363590.9301926568</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13829,7 +14517,7 @@
         <v>363622.6582926568</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -15622,6 +16310,6 @@
       <c r="M452" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest FCT.xlsx
+++ b/BackTest/2020-01-19 BackTest FCT.xlsx
@@ -451,7 +451,7 @@
         <v>-171263.9187338848</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-170421.9187338848</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-176043.0547578011</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-176043.0547578011</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-281373.6618578011</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-281173.6618578011</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-253081.5193689122</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-420285.2690689122</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1738,14 +1738,10 @@
         <v>-879312.022535254</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="J41" t="n">
-        <v>31.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
@@ -1775,19 +1771,11 @@
         <v>-932701.910235254</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>31.05</v>
-      </c>
-      <c r="J42" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1816,19 +1804,11 @@
         <v>-935203.5392352539</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>30.91</v>
-      </c>
-      <c r="J43" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1857,19 +1837,11 @@
         <v>-917867.7657352539</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="J44" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1898,19 +1870,11 @@
         <v>-5913984.602735254</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>31.19</v>
-      </c>
-      <c r="J45" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1942,14 +1906,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1981,14 +1939,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2020,14 +1972,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2059,14 +2005,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2098,14 +2038,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2137,14 +2071,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2176,14 +2104,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2215,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2254,14 +2170,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2293,14 +2203,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2332,14 +2236,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2371,14 +2269,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2410,14 +2302,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2449,14 +2335,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2488,14 +2368,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2527,14 +2401,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2566,14 +2434,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2605,14 +2467,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2644,14 +2500,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2683,14 +2533,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2722,14 +2566,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2761,14 +2599,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2800,14 +2632,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2839,14 +2665,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2878,14 +2698,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2917,14 +2731,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2956,14 +2764,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2995,14 +2797,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3034,14 +2830,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3073,14 +2863,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3112,14 +2896,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3151,14 +2929,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3190,14 +2962,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3229,14 +2995,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3268,14 +3028,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3307,14 +3061,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3346,14 +3094,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3385,14 +3127,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3424,14 +3160,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3463,14 +3193,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3502,14 +3226,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3541,14 +3259,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3580,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3616,17 +3322,15 @@
         <v>-692582.6076352536</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>31.3</v>
+      </c>
       <c r="J89" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>31.3</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3659,11 +3363,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>31.23</v>
+        <v>31.3</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L90" t="n">
@@ -3694,15 +3398,17 @@
         <v>-692488.5482352535</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>30.9</v>
+      </c>
       <c r="J91" t="n">
-        <v>31.23</v>
+        <v>31.3</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L91" t="n">
@@ -3733,17 +3439,15 @@
         <v>-692488.5482352535</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>31</v>
+      </c>
       <c r="J92" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3772,15 +3476,17 @@
         <v>-692488.5482352535</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>31</v>
+      </c>
       <c r="J93" t="n">
-        <v>31.23</v>
+        <v>31</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L93" t="n">
@@ -3811,15 +3517,17 @@
         <v>-686488.5482352535</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>31</v>
+      </c>
       <c r="J94" t="n">
-        <v>31.23</v>
+        <v>31</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L94" t="n">
@@ -3850,17 +3558,15 @@
         <v>-685664.1754352535</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>31.3</v>
+      </c>
       <c r="J95" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>31.3</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3893,11 +3599,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>31.23</v>
+        <v>31.3</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L96" t="n">
@@ -3932,11 +3638,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>31.23</v>
+        <v>31.3</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L97" t="n">
@@ -3970,14 +3676,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4009,14 +3709,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4048,14 +3742,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4084,17 +3772,15 @@
         <v>-677332.4939024129</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>31.69</v>
+      </c>
       <c r="J101" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>31.69</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4127,11 +3813,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>31.23</v>
+        <v>31.69</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L102" t="n">
@@ -4166,11 +3852,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>31.23</v>
+        <v>31.69</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L103" t="n">
@@ -4204,14 +3890,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4240,17 +3920,15 @@
         <v>-619436.0706024129</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>31.82</v>
+      </c>
       <c r="J105" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>31.82</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4279,15 +3957,17 @@
         <v>-618364.889102413</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>31.69</v>
+      </c>
       <c r="J106" t="n">
-        <v>31.23</v>
+        <v>31.82</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L106" t="n">
@@ -4318,15 +3998,17 @@
         <v>-619163.795402413</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>31.7</v>
+      </c>
       <c r="J107" t="n">
-        <v>31.23</v>
+        <v>31.82</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L107" t="n">
@@ -4357,17 +4039,15 @@
         <v>-555467.8186323943</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>31.69</v>
+      </c>
       <c r="J108" t="n">
-        <v>31.23</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>31.69</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4396,15 +4076,17 @@
         <v>-555467.8186323943</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>32.02</v>
+      </c>
       <c r="J109" t="n">
-        <v>31.23</v>
+        <v>31.69</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L109" t="n">
@@ -4435,15 +4117,17 @@
         <v>-555467.8186323943</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>32.02</v>
+      </c>
       <c r="J110" t="n">
-        <v>31.23</v>
+        <v>31.69</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L110" t="n">
@@ -4474,15 +4158,17 @@
         <v>-533627.1091024131</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>32.02</v>
+      </c>
       <c r="J111" t="n">
-        <v>31.23</v>
+        <v>31.69</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L111" t="n">
@@ -4513,11 +4199,13 @@
         <v>-533627.1091024131</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>32.32</v>
+      </c>
       <c r="J112" t="n">
-        <v>31.23</v>
+        <v>31.69</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4552,11 +4240,13 @@
         <v>-533627.1091024131</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>32.32</v>
+      </c>
       <c r="J113" t="n">
-        <v>31.23</v>
+        <v>31.69</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4591,11 +4281,13 @@
         <v>-533627.1091024131</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>32.32</v>
+      </c>
       <c r="J114" t="n">
-        <v>31.23</v>
+        <v>31.69</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4630,11 +4322,13 @@
         <v>-526959.5637024131</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>32.32</v>
+      </c>
       <c r="J115" t="n">
-        <v>31.23</v>
+        <v>31.69</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4669,19 +4363,21 @@
         <v>-527009.5637024131</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>32.39</v>
+      </c>
       <c r="J116" t="n">
-        <v>31.23</v>
+        <v>31.69</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L116" t="n">
-        <v>1.030862952289465</v>
+        <v>1</v>
       </c>
       <c r="M116" t="inlineStr"/>
     </row>
@@ -4708,11 +4404,19 @@
         <v>-527009.5637024131</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>32.35</v>
+      </c>
+      <c r="J117" t="n">
+        <v>31.69</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4741,11 +4445,19 @@
         <v>-528805.9708024131</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>32.35</v>
+      </c>
+      <c r="J118" t="n">
+        <v>31.69</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4774,11 +4486,19 @@
         <v>-528805.9708024131</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>32.03</v>
+      </c>
+      <c r="J119" t="n">
+        <v>31.69</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4807,11 +4527,19 @@
         <v>-528805.9708024131</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>32.03</v>
+      </c>
+      <c r="J120" t="n">
+        <v>31.69</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4840,11 +4568,19 @@
         <v>-500191.2077024131</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>32.03</v>
+      </c>
+      <c r="J121" t="n">
+        <v>31.69</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4873,11 +4609,19 @@
         <v>-498191.2077024131</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="J122" t="n">
+        <v>31.69</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4906,11 +4650,19 @@
         <v>-514337.9185024131</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="J123" t="n">
+        <v>31.69</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4939,11 +4691,19 @@
         <v>-483304.5797879642</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="J124" t="n">
+        <v>31.69</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4972,11 +4732,19 @@
         <v>-483304.5797879642</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>32.39</v>
+      </c>
+      <c r="J125" t="n">
+        <v>31.69</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5005,11 +4773,19 @@
         <v>-483304.5797879642</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>32.39</v>
+      </c>
+      <c r="J126" t="n">
+        <v>31.69</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5038,11 +4814,17 @@
         <v>-483304.5797879642</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>31.69</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5071,11 +4853,19 @@
         <v>-472447.4107024131</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>32.39</v>
+      </c>
+      <c r="J128" t="n">
+        <v>31.69</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5104,11 +4894,19 @@
         <v>-472447.4107024131</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="J129" t="n">
+        <v>31.69</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5137,11 +4935,19 @@
         <v>-472447.4107024131</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="J130" t="n">
+        <v>31.69</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5170,11 +4976,19 @@
         <v>-475447.4107024131</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="J131" t="n">
+        <v>31.69</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5203,11 +5017,17 @@
         <v>-471156.8535024131</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>31.69</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5236,11 +5056,17 @@
         <v>-471156.8535024131</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>31.69</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5269,11 +5095,17 @@
         <v>-436166.5804024131</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>31.69</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5302,11 +5134,17 @@
         <v>-495166.5804024131</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>31.69</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5335,11 +5173,17 @@
         <v>-495166.5804024131</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>31.69</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5368,11 +5212,19 @@
         <v>-502503.2568024131</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="J137" t="n">
+        <v>31.69</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5401,11 +5253,19 @@
         <v>-502487.2568024131</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>32.39</v>
+      </c>
+      <c r="J138" t="n">
+        <v>31.69</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5434,11 +5294,17 @@
         <v>-502487.2568024131</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>31.69</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5467,11 +5333,17 @@
         <v>-502487.2568024131</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>31.69</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5503,8 +5375,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>31.69</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5536,8 +5414,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>31.69</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5569,8 +5453,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>31.69</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5599,11 +5489,17 @@
         <v>-438025.0997024131</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>31.69</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5632,11 +5528,17 @@
         <v>-394785.7371024131</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>31.69</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5665,11 +5567,17 @@
         <v>-394785.7371024131</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>31.69</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5698,11 +5606,17 @@
         <v>-393708.2013024131</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>31.69</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5731,11 +5645,17 @@
         <v>-393708.2013024131</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>31.69</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5764,11 +5684,17 @@
         <v>-378460.6101797716</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>31.69</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5800,12 +5726,20 @@
         <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>31.69</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>1.057480277690123</v>
+      </c>
+      <c r="M150" t="n">
+        <v>1.109692206941716</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6160,7 +6094,7 @@
         <v>-658251.4471613436</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6193,7 +6127,7 @@
         <v>-1032288.918261344</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6226,7 +6160,7 @@
         <v>-1032288.918261344</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6259,7 +6193,7 @@
         <v>-1033985.161761344</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6292,7 +6226,7 @@
         <v>-1026051.770977761</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6325,7 +6259,7 @@
         <v>-1026302.960177762</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6358,7 +6292,7 @@
         <v>-1032655.497077761</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6655,7 +6589,7 @@
         <v>-1029170.430677762</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6688,7 +6622,7 @@
         <v>-1029154.430677762</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6721,7 +6655,7 @@
         <v>-1049751.879677762</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6754,7 +6688,7 @@
         <v>-1049751.879677762</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6787,7 +6721,7 @@
         <v>-1049751.879677762</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6820,7 +6754,7 @@
         <v>-1044004.77844616</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6853,7 +6787,7 @@
         <v>-1097768.26984616</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6886,7 +6820,7 @@
         <v>-1115103.63517357</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6919,7 +6853,7 @@
         <v>-1124233.44647357</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6952,7 +6886,7 @@
         <v>-1119732.82767357</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7018,7 +6952,7 @@
         <v>-1043265.091678204</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7051,7 +6985,7 @@
         <v>-1043340.842178204</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7084,7 +7018,7 @@
         <v>-720527.6267379823</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -9427,10 +9361,14 @@
         <v>-1097738.667190295</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="J260" t="n">
+        <v>31.54</v>
+      </c>
       <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
@@ -9460,11 +9398,19 @@
         <v>-1169506.297290295</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="J261" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9499,9 +9445,13 @@
         <v>31.4</v>
       </c>
       <c r="J262" t="n">
-        <v>31.4</v>
-      </c>
-      <c r="K262" t="inlineStr"/>
+        <v>31.54</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9530,15 +9480,17 @@
         <v>-1194459.929664277</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>31.9</v>
+      </c>
       <c r="J263" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L263" t="n">
@@ -9569,15 +9521,17 @@
         <v>-1194459.929664277</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>31.5</v>
+      </c>
       <c r="J264" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L264" t="n">
@@ -9614,11 +9568,11 @@
         <v>31.5</v>
       </c>
       <c r="J265" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L265" t="n">
@@ -9655,7 +9609,7 @@
         <v>31.8</v>
       </c>
       <c r="J266" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -9690,11 +9644,13 @@
         <v>-1198160.131364277</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>32.1</v>
+      </c>
       <c r="J267" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -9729,11 +9685,13 @@
         <v>-818160.1313642766</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>31.9</v>
+      </c>
       <c r="J268" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
@@ -9772,7 +9730,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
@@ -9811,7 +9769,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
@@ -9850,7 +9808,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
@@ -9889,7 +9847,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -9928,7 +9886,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -9967,7 +9925,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -10006,7 +9964,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -10045,7 +10003,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -10084,7 +10042,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -10123,7 +10081,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -10162,7 +10120,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -10201,7 +10159,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -10240,7 +10198,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -10279,7 +10237,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -10318,7 +10276,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -10357,7 +10315,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -10396,7 +10354,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -10435,7 +10393,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -10474,7 +10432,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -10513,7 +10471,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -10552,7 +10510,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -10591,7 +10549,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -10630,7 +10588,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -10669,7 +10627,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -10708,7 +10666,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -10747,7 +10705,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -10786,7 +10744,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -10825,7 +10783,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -10864,7 +10822,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -10903,7 +10861,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -10942,7 +10900,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -10981,7 +10939,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -11020,7 +10978,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -11059,7 +11017,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -11098,7 +11056,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -11137,7 +11095,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -11176,7 +11134,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -11215,7 +11173,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -11254,7 +11212,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -11293,7 +11251,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -11332,7 +11290,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -11371,7 +11329,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -11410,7 +11368,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -11449,7 +11407,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -11488,7 +11446,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -11527,7 +11485,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -11566,7 +11524,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -11605,7 +11563,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -11644,7 +11602,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -11683,7 +11641,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -11722,7 +11680,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
@@ -11761,7 +11719,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -11800,7 +11758,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
@@ -11839,7 +11797,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
@@ -11878,7 +11836,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
@@ -11917,7 +11875,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K324" t="inlineStr">
         <is>
@@ -11956,7 +11914,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K325" t="inlineStr">
         <is>
@@ -11995,7 +11953,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K326" t="inlineStr">
         <is>
@@ -12034,7 +11992,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K327" t="inlineStr">
         <is>
@@ -12073,7 +12031,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K328" t="inlineStr">
         <is>
@@ -12112,7 +12070,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K329" t="inlineStr">
         <is>
@@ -12151,7 +12109,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K330" t="inlineStr">
         <is>
@@ -12190,7 +12148,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
@@ -12229,7 +12187,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K332" t="inlineStr">
         <is>
@@ -12268,7 +12226,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K333" t="inlineStr">
         <is>
@@ -12307,7 +12265,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K334" t="inlineStr">
         <is>
@@ -12346,7 +12304,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K335" t="inlineStr">
         <is>
@@ -12385,7 +12343,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K336" t="inlineStr">
         <is>
@@ -12424,7 +12382,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K337" t="inlineStr">
         <is>
@@ -12463,7 +12421,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K338" t="inlineStr">
         <is>
@@ -12502,7 +12460,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K339" t="inlineStr">
         <is>
@@ -12541,7 +12499,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K340" t="inlineStr">
         <is>
@@ -12580,7 +12538,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K341" t="inlineStr">
         <is>
@@ -12619,7 +12577,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K342" t="inlineStr">
         <is>
@@ -12658,7 +12616,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K343" t="inlineStr">
         <is>
@@ -12697,7 +12655,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K344" t="inlineStr">
         <is>
@@ -12736,7 +12694,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K345" t="inlineStr">
         <is>
@@ -12775,7 +12733,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K346" t="inlineStr">
         <is>
@@ -12814,7 +12772,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K347" t="inlineStr">
         <is>
@@ -12853,7 +12811,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K348" t="inlineStr">
         <is>
@@ -12892,7 +12850,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K349" t="inlineStr">
         <is>
@@ -12927,19 +12885,19 @@
         <v>698475.6892926567</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="n">
-        <v>31.4</v>
+        <v>31.54</v>
       </c>
       <c r="K350" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L350" t="n">
-        <v>1.042770700636943</v>
+        <v>1</v>
       </c>
       <c r="M350" t="inlineStr"/>
     </row>
@@ -12966,11 +12924,17 @@
         <v>698475.6892926567</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12999,11 +12963,17 @@
         <v>733460.6120926568</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13032,11 +13002,17 @@
         <v>499282.0627926568</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13065,11 +13041,17 @@
         <v>603003.1302926568</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13098,11 +13080,17 @@
         <v>708420.9512926568</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13131,11 +13119,17 @@
         <v>777349.1314926569</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13164,11 +13158,17 @@
         <v>777349.1314926569</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13197,11 +13197,17 @@
         <v>767091.1503926569</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13230,11 +13236,17 @@
         <v>755456.5105926569</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13263,11 +13275,17 @@
         <v>755456.5105926569</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13296,11 +13314,17 @@
         <v>763560.0463926569</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13329,11 +13353,17 @@
         <v>691430.1263926568</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13362,11 +13392,17 @@
         <v>681064.5270926568</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13395,11 +13431,17 @@
         <v>681064.5270926568</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13428,11 +13470,17 @@
         <v>685821.3961926568</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13461,11 +13509,17 @@
         <v>596771.7688926568</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13494,11 +13548,17 @@
         <v>596771.7688926568</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13527,11 +13587,17 @@
         <v>596771.7688926568</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13560,11 +13626,17 @@
         <v>603566.0294926568</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13593,11 +13665,17 @@
         <v>600543.1990926568</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13626,11 +13704,17 @@
         <v>579328.9484926568</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13659,11 +13743,17 @@
         <v>506132.2602926568</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13692,11 +13782,17 @@
         <v>506132.2602926568</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13725,11 +13821,17 @@
         <v>506132.2602926568</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13758,11 +13860,17 @@
         <v>491453.9022926568</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13791,11 +13899,17 @@
         <v>501931.7848926568</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13824,11 +13938,17 @@
         <v>491195.4168926568</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13857,11 +13977,17 @@
         <v>493863.5001926568</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13890,11 +14016,17 @@
         <v>478874.6617926568</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13923,11 +14055,17 @@
         <v>478174.6617926568</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13956,11 +14094,17 @@
         <v>448884.7453926568</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13989,11 +14133,17 @@
         <v>334423.2851926568</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14025,8 +14175,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14058,8 +14214,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14091,8 +14253,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14124,8 +14292,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14157,8 +14331,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14190,8 +14370,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14223,8 +14409,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14256,8 +14448,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14289,8 +14487,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14322,8 +14526,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14355,8 +14565,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14388,8 +14604,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14421,8 +14643,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14454,8 +14682,14 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14487,8 +14721,14 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14520,8 +14760,14 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14553,8 +14799,14 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14586,8 +14838,14 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14619,8 +14877,14 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14652,8 +14916,14 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14685,8 +14955,14 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14718,8 +14994,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14751,8 +15033,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14784,8 +15072,14 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14817,8 +15111,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14850,8 +15150,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14883,8 +15189,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14916,8 +15228,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14949,8 +15267,14 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14982,8 +15306,14 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15015,8 +15345,14 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15048,8 +15384,14 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15081,8 +15423,14 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15114,8 +15462,14 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15147,8 +15501,14 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15180,8 +15540,14 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15213,8 +15579,14 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15246,8 +15618,14 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15279,8 +15657,14 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15312,8 +15696,14 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15345,8 +15735,14 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15378,8 +15774,14 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15411,8 +15813,14 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15444,8 +15852,14 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15477,8 +15891,14 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15510,8 +15930,14 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15543,8 +15969,14 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15576,8 +16008,14 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15609,8 +16047,14 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15642,8 +16086,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15675,8 +16125,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15708,8 +16164,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15741,8 +16203,14 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15774,8 +16242,14 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15807,8 +16281,14 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15840,8 +16320,14 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15873,8 +16359,14 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15906,8 +16398,14 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15939,8 +16437,14 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15972,8 +16476,14 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16005,8 +16515,14 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16038,8 +16554,14 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16071,8 +16593,14 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16104,8 +16632,14 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16137,8 +16671,14 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16170,8 +16710,14 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16203,8 +16749,14 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16236,8 +16788,14 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16269,8 +16827,14 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16302,8 +16866,14 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
